--- a/Code/Results/Cases/Case_4_117/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_117/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.37904481737927</v>
+        <v>9.375560273003021</v>
       </c>
       <c r="C2">
-        <v>6.796736850701332</v>
+        <v>4.873334640101121</v>
       </c>
       <c r="D2">
-        <v>7.076506993224887</v>
+        <v>6.000359434813047</v>
       </c>
       <c r="E2">
-        <v>14.56558884582713</v>
+        <v>12.48587606959194</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.100125888762989</v>
+        <v>3.660882570932025</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.05084008882492</v>
+        <v>8.703586337095217</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.37564479315607</v>
+        <v>13.7879471518383</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>20.27451353990889</v>
+        <v>26.48908835048002</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.56784891033458</v>
+        <v>9.141207699389019</v>
       </c>
       <c r="C3">
-        <v>6.523293678607388</v>
+        <v>4.743231214474398</v>
       </c>
       <c r="D3">
-        <v>6.584417409954684</v>
+        <v>5.884439380121115</v>
       </c>
       <c r="E3">
-        <v>13.69308283782416</v>
+        <v>12.26020140850136</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.106460006870733</v>
+        <v>3.663165921118523</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.43477671691161</v>
+        <v>8.55653884931032</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.43993989718965</v>
+        <v>13.63813880662676</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>19.98177223501664</v>
+        <v>26.49545803006296</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.04202197140742</v>
+        <v>8.996669255938162</v>
       </c>
       <c r="C4">
-        <v>6.349244864931712</v>
+        <v>4.660468743089274</v>
       </c>
       <c r="D4">
-        <v>6.273565191028785</v>
+        <v>5.813895740404158</v>
       </c>
       <c r="E4">
-        <v>13.14209895758017</v>
+        <v>12.12370435956095</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.110458392047688</v>
+        <v>3.664641469367243</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.03806441459085</v>
+        <v>8.467074643385754</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.83588398871306</v>
+        <v>13.54902084635102</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>19.81614461212118</v>
+        <v>26.50491228906302</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.82072860056302</v>
+        <v>8.937703955803448</v>
       </c>
       <c r="C5">
-        <v>6.276811838146372</v>
+        <v>4.626044378126353</v>
       </c>
       <c r="D5">
-        <v>6.160117891204363</v>
+        <v>5.78535134227424</v>
       </c>
       <c r="E5">
-        <v>12.91391774522446</v>
+        <v>12.06868101070824</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.112116164801863</v>
+        <v>3.665261326821154</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.871799995140938</v>
+        <v>8.430875363724761</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.58225772893186</v>
+        <v>13.51346557096962</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.75213421417687</v>
+        <v>26.51015731744985</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.78355838374813</v>
+        <v>8.927911826222058</v>
       </c>
       <c r="C6">
-        <v>6.264694732479568</v>
+        <v>4.620286878125405</v>
       </c>
       <c r="D6">
-        <v>6.141133776950883</v>
+        <v>5.780625096237505</v>
       </c>
       <c r="E6">
-        <v>12.87581443144808</v>
+        <v>12.05958301541363</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.112393178327577</v>
+        <v>3.665365376448888</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.843915451513894</v>
+        <v>8.424881582985273</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.53969117263949</v>
+        <v>13.50760876254955</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.74171370516745</v>
+        <v>26.51111228605363</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.03906597795853</v>
+        <v>8.995874159718426</v>
       </c>
       <c r="C7">
-        <v>6.348274048884404</v>
+        <v>4.660007274501707</v>
       </c>
       <c r="D7">
-        <v>6.2720450745613</v>
+        <v>5.81350990176212</v>
       </c>
       <c r="E7">
-        <v>13.13903612217509</v>
+        <v>12.12295975922202</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.110480633164604</v>
+        <v>3.664649753753539</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.03584068191948</v>
+        <v>8.466585334679342</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.8324937847443</v>
+        <v>13.54853820172009</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>19.81526733035286</v>
+        <v>26.50497739041849</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.10507976142593</v>
+        <v>9.294946644677413</v>
       </c>
       <c r="C8">
-        <v>6.703752721480163</v>
+        <v>4.829087232544311</v>
       </c>
       <c r="D8">
-        <v>6.910265308513279</v>
+        <v>5.960285277117704</v>
       </c>
       <c r="E8">
-        <v>14.26801236868774</v>
+        <v>12.40768249843631</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.102287806266361</v>
+        <v>3.661654639550203</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.84226778374563</v>
+        <v>8.652743985268584</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.05911282154819</v>
+        <v>13.73572344235592</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>20.17060919158141</v>
+        <v>26.49013336761151</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.9773253114885</v>
+        <v>9.872238876781459</v>
       </c>
       <c r="C9">
-        <v>7.350647843541505</v>
+        <v>5.136787487997692</v>
       </c>
       <c r="D9">
-        <v>8.047642398974801</v>
+        <v>6.251223236339361</v>
       </c>
       <c r="E9">
-        <v>16.39483954929405</v>
+        <v>12.97889963735552</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.087043007759688</v>
+        <v>3.656362089714061</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.2764389012853</v>
+        <v>9.022111187644203</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.23277209951577</v>
+        <v>14.12367093014437</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.98206332549591</v>
+        <v>26.50505196234593</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.22297517540104</v>
+        <v>10.28566956315359</v>
       </c>
       <c r="C10">
-        <v>7.79404062126331</v>
+        <v>5.347079679399152</v>
       </c>
       <c r="D10">
-        <v>8.806442882965326</v>
+        <v>6.464393887474391</v>
       </c>
       <c r="E10">
-        <v>18.02377288637174</v>
+        <v>13.40174588825505</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.07627558573126</v>
+        <v>3.652823809355272</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.24019361975457</v>
+        <v>9.293191768040012</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.69283680285378</v>
+        <v>14.41886444244845</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.65142364645174</v>
+        <v>26.54287718086492</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.7622304510534</v>
+        <v>10.47045472539623</v>
       </c>
       <c r="C11">
-        <v>7.988704265300569</v>
+        <v>5.439101627760626</v>
       </c>
       <c r="D11">
-        <v>9.135553071729644</v>
+        <v>6.56074735578309</v>
       </c>
       <c r="E11">
-        <v>18.73638041478621</v>
+        <v>13.59384168954667</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.071454839157996</v>
+        <v>3.651289345374348</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.65930139414348</v>
+        <v>9.415856449484469</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.32847803946974</v>
+        <v>14.55480702675535</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.97248773675177</v>
+        <v>26.56590892279415</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.96256270706001</v>
+        <v>10.53988254407845</v>
       </c>
       <c r="C12">
-        <v>8.061404207350579</v>
+        <v>5.473408364019992</v>
       </c>
       <c r="D12">
-        <v>9.257918915739054</v>
+        <v>6.597105929160434</v>
       </c>
       <c r="E12">
-        <v>19.00229290154741</v>
+        <v>13.66646992066997</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.069639000866298</v>
+        <v>3.650719021613646</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.81525815211409</v>
+        <v>9.462165661033461</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.56518088166699</v>
+        <v>14.60647653109102</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>22.0965031029931</v>
+        <v>26.57546590821316</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.91958864361075</v>
+        <v>10.52495542888093</v>
       </c>
       <c r="C13">
-        <v>8.045792093407728</v>
+        <v>5.466044053229101</v>
       </c>
       <c r="D13">
-        <v>9.231664973177738</v>
+        <v>6.589281775229226</v>
       </c>
       <c r="E13">
-        <v>18.94519643856265</v>
+        <v>13.65083440509421</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.070029668439317</v>
+        <v>3.650841374086523</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.78179187699866</v>
+        <v>9.452199160673729</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.51437883465895</v>
+        <v>14.59534083442504</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>22.06968497353907</v>
+        <v>26.57337053104806</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.77878910003137</v>
+        <v>10.47617794378551</v>
       </c>
       <c r="C14">
-        <v>7.994705668650888</v>
+        <v>5.441934973438105</v>
       </c>
       <c r="D14">
-        <v>9.145665200674578</v>
+        <v>6.563741388932799</v>
       </c>
       <c r="E14">
-        <v>18.7583351839253</v>
+        <v>13.59981957751177</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.071305263965804</v>
+        <v>3.651242209487841</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.67218698682858</v>
+        <v>9.4196694319452</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.34803126518937</v>
+        <v>14.5590543501196</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.9826414294843</v>
+        <v>26.56667845531096</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.69204316563632</v>
+        <v>10.44622709375109</v>
       </c>
       <c r="C15">
-        <v>7.963281603012037</v>
+        <v>5.427096687284992</v>
       </c>
       <c r="D15">
-        <v>9.092694938620809</v>
+        <v>6.548079310520652</v>
       </c>
       <c r="E15">
-        <v>18.64336928374016</v>
+        <v>13.56855441060332</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.072087817492524</v>
+        <v>3.651489130292938</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.60469359772729</v>
+        <v>9.399724263599083</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.24562086414653</v>
+        <v>14.53685130447662</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.92964354023125</v>
+        <v>26.56268807540092</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.18718793379942</v>
+        <v>10.2735208476499</v>
       </c>
       <c r="C16">
-        <v>7.78117687937666</v>
+        <v>5.340991120196467</v>
       </c>
       <c r="D16">
-        <v>8.784615565439696</v>
+        <v>6.458081092932395</v>
       </c>
       <c r="E16">
-        <v>17.97664303427076</v>
+        <v>13.38918010382324</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.076592068720028</v>
+        <v>3.652925596829135</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.21241743973049</v>
+        <v>9.285158121981434</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.65073035995484</v>
+        <v>14.41000957440498</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.63077918525661</v>
+        <v>26.54148903886396</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.87050496332264</v>
+        <v>10.16667506241268</v>
       </c>
       <c r="C17">
-        <v>7.66765485464659</v>
+        <v>5.287223365896261</v>
       </c>
       <c r="D17">
-        <v>8.59153717986417</v>
+        <v>6.40268290379985</v>
       </c>
       <c r="E17">
-        <v>17.56045351150937</v>
+        <v>13.27901759712572</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.079374108275066</v>
+        <v>3.653826020978929</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.96683907292937</v>
+        <v>9.214674189787351</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.27854308795002</v>
+        <v>14.33258704810449</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.45171570358667</v>
+        <v>26.52997464591684</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.68577417087088</v>
+        <v>10.10491487804701</v>
       </c>
       <c r="C18">
-        <v>7.601697307957821</v>
+        <v>5.255955732241396</v>
       </c>
       <c r="D18">
-        <v>8.478967670738809</v>
+        <v>6.370763305392018</v>
       </c>
       <c r="E18">
-        <v>17.31838911664389</v>
+        <v>13.21563506676327</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.080981644055658</v>
+        <v>3.654350994951276</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.82376926080912</v>
+        <v>9.174075120693763</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.06177666317205</v>
+        <v>14.28821450328886</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.35027936844976</v>
+        <v>26.52390031685038</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.62278187237651</v>
+        <v>10.08395384637279</v>
       </c>
       <c r="C19">
-        <v>7.579251592436659</v>
+        <v>5.24531086504357</v>
       </c>
       <c r="D19">
-        <v>8.440591727265661</v>
+        <v>6.359947489254138</v>
       </c>
       <c r="E19">
-        <v>17.23596519567975</v>
+        <v>13.19417380108939</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.081527238027464</v>
+        <v>3.654529958807811</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.77501510261268</v>
+        <v>9.160320397282382</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.98791754393899</v>
+        <v>14.27321945127843</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.31620050445525</v>
+        <v>26.52193790548803</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.90448327689796</v>
+        <v>10.17808113043432</v>
       </c>
       <c r="C20">
-        <v>7.67980809405209</v>
+        <v>5.292982538952701</v>
       </c>
       <c r="D20">
-        <v>8.612247242744926</v>
+        <v>6.408586225923319</v>
       </c>
       <c r="E20">
-        <v>17.60503427834103</v>
+        <v>13.29074721924843</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.079077201756763</v>
+        <v>3.653729437593887</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.99316947182865</v>
+        <v>9.22218373845193</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.3184411695261</v>
+        <v>14.34081271241178</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.47061588154949</v>
+        <v>26.53114362448792</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.82024985767451</v>
+        <v>10.49052045822866</v>
       </c>
       <c r="C21">
-        <v>8.009738527327841</v>
+        <v>5.449031171676463</v>
       </c>
       <c r="D21">
-        <v>9.170986368800897</v>
+        <v>6.571247007682739</v>
       </c>
       <c r="E21">
-        <v>18.81332644074735</v>
+        <v>13.61480756784086</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.070930340332167</v>
+        <v>3.651124183267549</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.70445498650815</v>
+        <v>9.429228403832031</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.39699926650929</v>
+        <v>14.56970776222906</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.00814169110162</v>
+        <v>26.56862143022121</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.39622260187389</v>
+        <v>10.69150329127278</v>
       </c>
       <c r="C22">
-        <v>8.219454307028675</v>
+        <v>5.547864144554741</v>
       </c>
       <c r="D22">
-        <v>9.523001024421768</v>
+        <v>6.676790078306687</v>
       </c>
       <c r="E22">
-        <v>19.58015072879271</v>
+        <v>13.8259003277921</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.06566151257431</v>
+        <v>3.649484099483575</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.15330909118944</v>
+        <v>9.563700257338974</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.07863690596991</v>
+        <v>14.72039553091504</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>22.37366925251626</v>
+        <v>26.59798291564346</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.09085313186132</v>
+        <v>10.58455189945468</v>
       </c>
       <c r="C23">
-        <v>8.108065400114494</v>
+        <v>5.49540868369337</v>
       </c>
       <c r="D23">
-        <v>9.336310407746026</v>
+        <v>6.620542236616708</v>
       </c>
       <c r="E23">
-        <v>19.17292112074082</v>
+        <v>13.71332471406426</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.068469011089835</v>
+        <v>3.650353733963046</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.91520129245509</v>
+        <v>9.49202247378696</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.71692504586096</v>
+        <v>14.63988629170716</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.17726016582963</v>
+        <v>26.58186769052441</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.88912998892608</v>
+        <v>10.17292547900014</v>
       </c>
       <c r="C24">
-        <v>7.674315770337466</v>
+        <v>5.290379923942443</v>
       </c>
       <c r="D24">
-        <v>8.602889105348941</v>
+        <v>6.405917550405188</v>
       </c>
       <c r="E24">
-        <v>17.58488801950617</v>
+        <v>13.28544440271447</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.079211407842384</v>
+        <v>3.653773080172503</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.98127136717435</v>
+        <v>9.218788907423718</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.30041194798114</v>
+        <v>14.33709345393796</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.46206641280149</v>
+        <v>26.53061342998895</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.49388961528006</v>
+        <v>9.717597512225618</v>
       </c>
       <c r="C25">
-        <v>7.181179121504659</v>
+        <v>5.05623570326841</v>
       </c>
       <c r="D25">
-        <v>7.753637526802476</v>
+        <v>6.172444548156533</v>
       </c>
       <c r="E25">
-        <v>15.80473917115685</v>
+        <v>12.823480281092</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.091085901101341</v>
+        <v>3.657732089592313</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.90428275831374</v>
+        <v>8.922032286122828</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.66913889218652</v>
+        <v>14.01674699680888</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.74991573386347</v>
+        <v>26.49629730141043</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_117/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_117/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.375560273003021</v>
+        <v>12.37904481737929</v>
       </c>
       <c r="C2">
-        <v>4.873334640101121</v>
+        <v>6.796736850701111</v>
       </c>
       <c r="D2">
-        <v>6.000359434813047</v>
+        <v>7.076506993224873</v>
       </c>
       <c r="E2">
-        <v>12.48587606959194</v>
+        <v>14.56558884582712</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.660882570932025</v>
+        <v>2.10012588876299</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.703586337095217</v>
+        <v>11.05084008882483</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.7879471518383</v>
+        <v>14.37564479315611</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>26.48908835048002</v>
+        <v>20.27451353990882</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.141207699389019</v>
+        <v>11.56784891033451</v>
       </c>
       <c r="C3">
-        <v>4.743231214474398</v>
+        <v>6.523293678607386</v>
       </c>
       <c r="D3">
-        <v>5.884439380121115</v>
+        <v>6.584417409954694</v>
       </c>
       <c r="E3">
-        <v>12.26020140850136</v>
+        <v>13.69308283782416</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.663165921118523</v>
+        <v>2.106460006870732</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.55653884931032</v>
+        <v>10.43477671691155</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.63813880662676</v>
+        <v>13.43993989718965</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.49545803006296</v>
+        <v>19.98177223501674</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.996669255938162</v>
+        <v>11.04202197140751</v>
       </c>
       <c r="C4">
-        <v>4.660468743089274</v>
+        <v>6.349244864931408</v>
       </c>
       <c r="D4">
-        <v>5.813895740404158</v>
+        <v>6.27356519102875</v>
       </c>
       <c r="E4">
-        <v>12.12370435956095</v>
+        <v>13.14209895758016</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.664641469367243</v>
+        <v>2.110458392047822</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.467074643385754</v>
+        <v>10.0380644145908</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.54902084635102</v>
+        <v>12.83588398871301</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>26.50491228906302</v>
+        <v>19.81614461212117</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.937703955803448</v>
+        <v>10.82072860056296</v>
       </c>
       <c r="C5">
-        <v>4.626044378126353</v>
+        <v>6.276811838146393</v>
       </c>
       <c r="D5">
-        <v>5.78535134227424</v>
+        <v>6.160117891204337</v>
       </c>
       <c r="E5">
-        <v>12.06868101070824</v>
+        <v>12.91391774522444</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.665261326821154</v>
+        <v>2.112116164801864</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.430875363724761</v>
+        <v>9.871799995140934</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.51346557096962</v>
+        <v>12.58225772893186</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>26.51015731744985</v>
+        <v>19.75213421417679</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.927911826222058</v>
+        <v>10.78355838374812</v>
       </c>
       <c r="C6">
-        <v>4.620286878125405</v>
+        <v>6.264694732479676</v>
       </c>
       <c r="D6">
-        <v>5.780625096237505</v>
+        <v>6.141133776950883</v>
       </c>
       <c r="E6">
-        <v>12.05958301541363</v>
+        <v>12.87581443144807</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.665365376448888</v>
+        <v>2.112393178327578</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.424881582985273</v>
+        <v>9.843915451513858</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.50760876254955</v>
+        <v>12.53969117263956</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>26.51111228605363</v>
+        <v>19.74171370516747</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.995874159718426</v>
+        <v>11.03906597795859</v>
       </c>
       <c r="C7">
-        <v>4.660007274501707</v>
+        <v>6.34827404888451</v>
       </c>
       <c r="D7">
-        <v>5.81350990176212</v>
+        <v>6.272045074561331</v>
       </c>
       <c r="E7">
-        <v>12.12295975922202</v>
+        <v>13.13903612217511</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.664649753753539</v>
+        <v>2.110480633164204</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.466585334679342</v>
+        <v>10.03584068191955</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.54853820172009</v>
+        <v>12.83249378474434</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26.50497739041849</v>
+        <v>19.81526733035262</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.294946644677413</v>
+        <v>12.10507976142605</v>
       </c>
       <c r="C8">
-        <v>4.829087232544311</v>
+        <v>6.703752721480291</v>
       </c>
       <c r="D8">
-        <v>5.960285277117704</v>
+        <v>6.910265308513315</v>
       </c>
       <c r="E8">
-        <v>12.40768249843631</v>
+        <v>14.26801236868777</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.661654639550203</v>
+        <v>2.10228780626636</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.652743985268584</v>
+        <v>10.84226778374572</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.73572344235592</v>
+        <v>14.0591128215482</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>26.49013336761151</v>
+        <v>20.17060919158115</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.872238876781459</v>
+        <v>13.97732531148846</v>
       </c>
       <c r="C9">
-        <v>5.136787487997692</v>
+        <v>7.350647843541494</v>
       </c>
       <c r="D9">
-        <v>6.251223236339361</v>
+        <v>8.047642398974869</v>
       </c>
       <c r="E9">
-        <v>12.97889963735552</v>
+        <v>16.39483954929405</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.656362089714061</v>
+        <v>2.08704300775969</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.022111187644203</v>
+        <v>12.27643890128529</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.12367093014437</v>
+        <v>16.23277209951578</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>26.50505196234593</v>
+        <v>20.98206332549593</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.28566956315359</v>
+        <v>15.22297517540102</v>
       </c>
       <c r="C10">
-        <v>5.347079679399152</v>
+        <v>7.794040621263298</v>
       </c>
       <c r="D10">
-        <v>6.464393887474391</v>
+        <v>8.80644288296525</v>
       </c>
       <c r="E10">
-        <v>13.40174588825505</v>
+        <v>18.0237728863717</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.652823809355272</v>
+        <v>2.076275585731258</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.293191768040012</v>
+        <v>13.24019361975453</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.41886444244845</v>
+        <v>17.69283680285374</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>26.54287718086492</v>
+        <v>21.65142364645176</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.47045472539623</v>
+        <v>15.76223045105348</v>
       </c>
       <c r="C11">
-        <v>5.439101627760626</v>
+        <v>7.98870426530055</v>
       </c>
       <c r="D11">
-        <v>6.56074735578309</v>
+        <v>9.135553071729595</v>
       </c>
       <c r="E11">
-        <v>13.59384168954667</v>
+        <v>18.73638041478624</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.651289345374348</v>
+        <v>2.071454839158132</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.415856449484469</v>
+        <v>13.65930139414354</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.55480702675535</v>
+        <v>18.32847803946977</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>26.56590892279415</v>
+        <v>21.9724877367517</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.53988254407845</v>
+        <v>15.96256270706007</v>
       </c>
       <c r="C12">
-        <v>5.473408364019992</v>
+        <v>8.061404207350666</v>
       </c>
       <c r="D12">
-        <v>6.597105929160434</v>
+        <v>9.257918915739067</v>
       </c>
       <c r="E12">
-        <v>13.66646992066997</v>
+        <v>19.00229290154743</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.650719021613646</v>
+        <v>2.069639000866032</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.462165661033461</v>
+        <v>13.81525815211413</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.60647653109102</v>
+        <v>18.56518088166702</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>26.57546590821316</v>
+        <v>22.09650310299302</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.52495542888093</v>
+        <v>15.91958864361073</v>
       </c>
       <c r="C13">
-        <v>5.466044053229101</v>
+        <v>8.045792093407824</v>
       </c>
       <c r="D13">
-        <v>6.589281775229226</v>
+        <v>9.231664973177743</v>
       </c>
       <c r="E13">
-        <v>13.65083440509421</v>
+        <v>18.94519643856269</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.650841374086523</v>
+        <v>2.070029668439583</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.452199160673729</v>
+        <v>13.78179187699869</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.59534083442504</v>
+        <v>18.51437883465898</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>26.57337053104806</v>
+        <v>22.06968497353899</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.47617794378551</v>
+        <v>15.77878910003138</v>
       </c>
       <c r="C14">
-        <v>5.441934973438105</v>
+        <v>7.994705668650989</v>
       </c>
       <c r="D14">
-        <v>6.563741388932799</v>
+        <v>9.145665200674529</v>
       </c>
       <c r="E14">
-        <v>13.59981957751177</v>
+        <v>18.75833518392527</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.651242209487841</v>
+        <v>2.071305263965537</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.4196694319452</v>
+        <v>13.67218698682862</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.5590543501196</v>
+        <v>18.34803126518939</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>26.56667845531096</v>
+        <v>21.98264142948427</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.44622709375109</v>
+        <v>15.69204316563623</v>
       </c>
       <c r="C15">
-        <v>5.427096687284992</v>
+        <v>7.963281603012375</v>
       </c>
       <c r="D15">
-        <v>6.548079310520652</v>
+        <v>9.092694938620831</v>
       </c>
       <c r="E15">
-        <v>13.56855441060332</v>
+        <v>18.64336928374019</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.651489130292938</v>
+        <v>2.072087817492389</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.399724263599083</v>
+        <v>13.60469359772729</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.53685130447662</v>
+        <v>18.24562086414655</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>26.56268807540092</v>
+        <v>21.92964354023112</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.2735208476499</v>
+        <v>15.18718793379939</v>
       </c>
       <c r="C16">
-        <v>5.340991120196467</v>
+        <v>7.781176879376759</v>
       </c>
       <c r="D16">
-        <v>6.458081092932395</v>
+        <v>8.784615565439744</v>
       </c>
       <c r="E16">
-        <v>13.38918010382324</v>
+        <v>17.97664303427076</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.652925596829135</v>
+        <v>2.076592068720426</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.285158121981434</v>
+        <v>13.21241743973048</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.41000957440498</v>
+        <v>17.65073035995484</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>26.54148903886396</v>
+        <v>21.63077918525665</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.16667506241268</v>
+        <v>14.87050496332264</v>
       </c>
       <c r="C17">
-        <v>5.287223365896261</v>
+        <v>7.667654854646801</v>
       </c>
       <c r="D17">
-        <v>6.40268290379985</v>
+        <v>8.591537179864146</v>
       </c>
       <c r="E17">
-        <v>13.27901759712572</v>
+        <v>17.56045351150937</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.653826020978929</v>
+        <v>2.0793741082748</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.214674189787351</v>
+        <v>12.96683907292942</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.33258704810449</v>
+        <v>17.27854308795004</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>26.52997464591684</v>
+        <v>21.45171570358665</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.10491487804701</v>
+        <v>14.68577417087088</v>
       </c>
       <c r="C18">
-        <v>5.255955732241396</v>
+        <v>7.601697307957804</v>
       </c>
       <c r="D18">
-        <v>6.370763305392018</v>
+        <v>8.478967670738841</v>
       </c>
       <c r="E18">
-        <v>13.21563506676327</v>
+        <v>17.3183891166439</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.654350994951276</v>
+        <v>2.080981644055928</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.174075120693763</v>
+        <v>12.82376926080912</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.28821450328886</v>
+        <v>17.06177666317206</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>26.52390031685038</v>
+        <v>21.35027936844977</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.08395384637279</v>
+        <v>14.62278187237651</v>
       </c>
       <c r="C19">
-        <v>5.24531086504357</v>
+        <v>7.579251592436551</v>
       </c>
       <c r="D19">
-        <v>6.359947489254138</v>
+        <v>8.440591727265728</v>
       </c>
       <c r="E19">
-        <v>13.19417380108939</v>
+        <v>17.23596519567975</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.654529958807811</v>
+        <v>2.081527238027595</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.160320397282382</v>
+        <v>12.77501510261267</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.27321945127843</v>
+        <v>16.98791754393898</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>26.52193790548803</v>
+        <v>21.31620050445522</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.17808113043432</v>
+        <v>14.904483276898</v>
       </c>
       <c r="C20">
-        <v>5.292982538952701</v>
+        <v>7.679808094052124</v>
       </c>
       <c r="D20">
-        <v>6.408586225923319</v>
+        <v>8.612247242745012</v>
       </c>
       <c r="E20">
-        <v>13.29074721924843</v>
+        <v>17.60503427834108</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.653729437593887</v>
+        <v>2.079077201756764</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.22218373845193</v>
+        <v>12.99316947182868</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.34081271241178</v>
+        <v>17.31844116952615</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>26.53114362448792</v>
+        <v>21.47061588154931</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.49052045822866</v>
+        <v>15.82024985767441</v>
       </c>
       <c r="C21">
-        <v>5.449031171676463</v>
+        <v>8.009738527327929</v>
       </c>
       <c r="D21">
-        <v>6.571247007682739</v>
+        <v>9.170986368800865</v>
       </c>
       <c r="E21">
-        <v>13.61480756784086</v>
+        <v>18.81332644074734</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.651124183267549</v>
+        <v>2.0709303403323</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.429228403832031</v>
+        <v>13.70445498650809</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.56970776222906</v>
+        <v>18.39699926650925</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>26.56862143022121</v>
+        <v>22.00814169110171</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.69150329127278</v>
+        <v>16.39622260187389</v>
       </c>
       <c r="C22">
-        <v>5.547864144554741</v>
+        <v>8.219454307028663</v>
       </c>
       <c r="D22">
-        <v>6.676790078306687</v>
+        <v>9.523001024421749</v>
       </c>
       <c r="E22">
-        <v>13.8259003277921</v>
+        <v>19.5801507287927</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.649484099483575</v>
+        <v>2.065661512574443</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.563700257338974</v>
+        <v>14.15330909118946</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.72039553091504</v>
+        <v>19.0786369059699</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>26.59798291564346</v>
+        <v>22.37366925251622</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.58455189945468</v>
+        <v>16.09085313186133</v>
       </c>
       <c r="C23">
-        <v>5.49540868369337</v>
+        <v>8.108065400114503</v>
       </c>
       <c r="D23">
-        <v>6.620542236616708</v>
+        <v>9.336310407746096</v>
       </c>
       <c r="E23">
-        <v>13.71332471406426</v>
+        <v>19.17292112074082</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.650353733963046</v>
+        <v>2.068469011089567</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.49202247378696</v>
+        <v>13.91520129245512</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.63988629170716</v>
+        <v>18.71692504586097</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>26.58186769052441</v>
+        <v>22.1772601658296</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.17292547900014</v>
+        <v>14.88912998892599</v>
       </c>
       <c r="C24">
-        <v>5.290379923942443</v>
+        <v>7.674315770337592</v>
       </c>
       <c r="D24">
-        <v>6.405917550405188</v>
+        <v>8.602889105348925</v>
       </c>
       <c r="E24">
-        <v>13.28544440271447</v>
+        <v>17.58488801950611</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.653773080172503</v>
+        <v>2.07921140784238</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.218788907423718</v>
+        <v>12.98127136717435</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.33709345393796</v>
+        <v>17.30041194798108</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>26.53061342998895</v>
+        <v>21.46206641280153</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.717597512225618</v>
+        <v>13.49388961528005</v>
       </c>
       <c r="C25">
-        <v>5.05623570326841</v>
+        <v>7.18117912150455</v>
       </c>
       <c r="D25">
-        <v>6.172444548156533</v>
+        <v>7.753637526802468</v>
       </c>
       <c r="E25">
-        <v>12.823480281092</v>
+        <v>15.80473917115686</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.657732089592313</v>
+        <v>2.091085901101339</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.922032286122828</v>
+        <v>11.90428275831374</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.01674699680888</v>
+        <v>15.66913889218655</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>26.49629730141043</v>
+        <v>20.74991573386348</v>
       </c>
     </row>
   </sheetData>
